--- a/src/main/resources/testdata/Add_GF_AccessionNo.xlsx
+++ b/src/main/resources/testdata/Add_GF_AccessionNo.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
